--- a/biology/Zoologie/Chasse_au_loup/Chasse_au_loup.xlsx
+++ b/biology/Zoologie/Chasse_au_loup/Chasse_au_loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chasse au loup est un type de chasse destiné à effrayer, attraper ou tuer des loups et notamment de l'espèce Canis lupus. 
 Le loup étant un superprédateur (prédateur, qui une fois à l'âge adulte se trouve au sommet de la chaîne alimentaire et n'est alors la proie d'aucune autre espèce animale), sa chasse n'est réalisée que par l'Homme.
@@ -513,7 +525,9 @@
           <t>Objectifs de la chasse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prévention des attaques de loup sur l'homme
 réduction de la concurrence sur le gibier
@@ -549,7 +563,9 @@
           <t>Types de chasse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>utilisation de pièges (pièges à loup)
 Chasse à courre aux loups
@@ -582,7 +598,9 @@
           <t>Races de chiens adaptées à la chasse au loup</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Irish wolfhound, ou lévrier irlandais, est le plus rustique et le plus grand des lévriers qui était historiquement utilisé pour chasser le loup et les cervidés jusqu'au XVIIe siècle, avant de devenir principalement un chien d'agrément.
 Le chien de recherche au sang de la montagne bavaroise est un chien de chasse utilisé pour la recherche au sang sur le grand gibier blessé. Il a également été utilisé pour la chasse au loup et à l'ours.
@@ -616,12 +634,81 @@
           <t>Chasse au loup dans la culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Légende de Lobo est un film produit par Disney en 1962 et adapté de Lobo the King of Currumpaw, la première histoire du livre Wild Animals I Have Known publié en 1898 par Ernest Thompson Seton. Cette œuvre prend le point de vue de l'animal qui se voit chassé tout au long de sa vie.
 Une chasse au loup tient une place importante dans le roman de 1947 de Jean Giono Un roi sans divertissement.
-Bête du Gévaudan
-Chasse au loup dans l'art
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chasse au loup dans la culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bête du Gévaudan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chasse au loup dans la culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chasse au loup dans l'art</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Category:Wolf hunting in art, sur Wikimedia Commons
 			La Chasse au loup et au renard, tableau de Pierre Paul Rubens, vers 1616, Metropolitan Museum of Art, à New York.
@@ -633,34 +720,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chasse_au_loup</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chasse_au_loup</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Chasse au loup en Amérique du Nord</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle Wolfers les chasseurs de loups amateurs et professionnels en Amérique du Nord au XIXe siècle et début du XXe siècle[1].
-Les différentes tribus d'indiens d'Amérique, incluant les Inuits, ne consomm(ai)ent habituellement pas de viande de loup, sauf en cas de pénurie alimentaire. Cette viande pouvait néanmoins servir d'aliment pour les chiens[2],[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle Wolfers les chasseurs de loups amateurs et professionnels en Amérique du Nord au XIXe siècle et début du XXe siècle.
+Les différentes tribus d'indiens d'Amérique, incluant les Inuits, ne consomm(ai)ent habituellement pas de viande de loup, sauf en cas de pénurie alimentaire. Cette viande pouvait néanmoins servir d'aliment pour les chiens,.
 Aux États-Unis, le loup gris était protégé par l'Endangered Species Act de 1973. Cependant, il a été retiré de la liste des espèces protégées depuis le 4 janvier 2021.
 			Wolfer canadien posant devant des fourrures de loups en 1909.
 			Capture au lasso d'un Loup des plaines, dans le Wyoming en 1887. Photographie prise par l'Américain John C. H. Grabill.
@@ -669,73 +758,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chasse_au_loup</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chasse_au_loup</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Chasse au loup en Europe</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le loup a été déclaré espèce protégée en Europe par la convention de Berne en 1979[4].
-Situation en France
-Historiquement, la chasse au loup a été pratiquée en France. La Louveterie est une institution créée par Charlemagne dans le but de détruire les loups.
-Au début du XXe siècle, le loup est considéré comme exterminé en France. En 1937, un loup est abattu dans le Limousin, connu comme la région des derniers loups de souche française.
-Depuis les années 1990, le loup est réapparu en France.
-Au XXIe siècle, des quotas d'abattage ont été mis en place pour réguler localement les populations[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chasse_au_loup</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chasse_au_loup</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Chasse au loup en Asie</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yewei (chinois : 野味 Yěwèi) est le nom en chinois de la « viande de gibier ». La viande de loup en fait partie.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -757,10 +779,118 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Chasse au loup en Europe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le loup a été déclaré espèce protégée en Europe par la convention de Berne en 1979.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Chasse au loup en Europe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Situation en France</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, la chasse au loup a été pratiquée en France. La Louveterie est une institution créée par Charlemagne dans le but de détruire les loups.
+Au début du XXe siècle, le loup est considéré comme exterminé en France. En 1937, un loup est abattu dans le Limousin, connu comme la région des derniers loups de souche française.
+Depuis les années 1990, le loup est réapparu en France.
+Au XXIe siècle, des quotas d'abattage ont été mis en place pour réguler localement les populations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chasse au loup en Asie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yewei (chinois : 野味 Yěwèi) est le nom en chinois de la « viande de gibier ». La viande de loup en fait partie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasse_au_loup</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Impact écologique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La chasse du loup peut conduire à la colonisation des espaces par d'autres espèces.
 </t>
